--- a/recursos/CONTROL SOCIS.xlsx
+++ b/recursos/CONTROL SOCIS.xlsx
@@ -11,11 +11,11 @@
     <sheet name="2016" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__xlnm._FilterDatabase">'2015'!$A$1:$F$123</definedName>
-    <definedName name="__xlnm._FilterDatabase_1">'2015'!$A$1:$H$133</definedName>
+    <definedName name="__xlnm._FilterDatabase">'2015'!$A$1:$F$134</definedName>
+    <definedName name="__xlnm._FilterDatabase_1">'2015'!$A$1:$H$144</definedName>
     <definedName name="_1Excel_BuiltIn__FilterDatabase_1">'2015'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2015'!$A$1:$H$134</definedName>
-    <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="0">'2015'!$A$1:$H$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2015'!$A$1:$H$145</definedName>
+    <definedName name="Excel_BuiltIn__FilterDatabase" localSheetId="0">'2015'!$A$1:$H$144</definedName>
     <definedName name="Excel_BuiltIn__FilterDatabase_1">'2015'!$A$2:$F$2</definedName>
   </definedNames>
   <calcPr calcId="125725" iterateDelta="1E-4"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="586">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="656">
   <si>
     <t>NOM I COGNOMS</t>
   </si>
@@ -154,9 +154,6 @@
     <t>aleixreder_1990@msn.com</t>
   </si>
   <si>
-    <t>Alex Fernandez</t>
-  </si>
-  <si>
     <t>47860660-Y</t>
   </si>
   <si>
@@ -1072,9 +1069,6 @@
     <t>47827500-N</t>
   </si>
   <si>
-    <t>Passatge de l’Hort 1 C 3r 2a (La Sénia)</t>
-  </si>
-  <si>
     <t>miresenia@gmail.com</t>
   </si>
   <si>
@@ -1168,9 +1162,6 @@
     <t>p.ortizprades@gmail.com</t>
   </si>
   <si>
-    <t>Pau Pertegas Ayza</t>
-  </si>
-  <si>
     <t>47855901-P</t>
   </si>
   <si>
@@ -1781,6 +1772,225 @@
   </si>
   <si>
     <t>SI - 63</t>
+  </si>
+  <si>
+    <t>SI - 66</t>
+  </si>
+  <si>
+    <t>Pau Pertegàs Ayza</t>
+  </si>
+  <si>
+    <t>SI - 64</t>
+  </si>
+  <si>
+    <t>SI - 67</t>
+  </si>
+  <si>
+    <t>Jonatan Moreno Vazquez</t>
+  </si>
+  <si>
+    <t>47826190-J</t>
+  </si>
+  <si>
+    <t>C/València nº 58 (La Sénia)</t>
+  </si>
+  <si>
+    <t>jonathan.mv.87@gmail.com</t>
+  </si>
+  <si>
+    <t>SI - 65</t>
+  </si>
+  <si>
+    <t>Marc Lleixà Zaragoza</t>
+  </si>
+  <si>
+    <t>C/Barcelona, nº 51 (La Sénia)</t>
+  </si>
+  <si>
+    <t>SI - 68</t>
+  </si>
+  <si>
+    <t>47859868-L</t>
+  </si>
+  <si>
+    <t>marclleixa96@gmail.com</t>
+  </si>
+  <si>
+    <t>SI -69</t>
+  </si>
+  <si>
+    <t>SI-70</t>
+  </si>
+  <si>
+    <t>SI-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Betsaida Dellà Querol </t>
+  </si>
+  <si>
+    <t>47858901-H</t>
+  </si>
+  <si>
+    <t>C/ Uldecona, 2 3atic H</t>
+  </si>
+  <si>
+    <t>betsaida822@gmail.com</t>
+  </si>
+  <si>
+    <t>SI-72</t>
+  </si>
+  <si>
+    <t>SI-73</t>
+  </si>
+  <si>
+    <t>SI-74</t>
+  </si>
+  <si>
+    <t>Marc Murria Nogues</t>
+  </si>
+  <si>
+    <t>47827507-L</t>
+  </si>
+  <si>
+    <t>C/Maragall, 19</t>
+  </si>
+  <si>
+    <t>murria_91@hotmail.com</t>
+  </si>
+  <si>
+    <t>SI-75</t>
+  </si>
+  <si>
+    <t>SI-76</t>
+  </si>
+  <si>
+    <t>Gerard Querol Pascual</t>
+  </si>
+  <si>
+    <t>47829875-H</t>
+  </si>
+  <si>
+    <t>Passeig de la Clotada, nº 72 E3 P1 A (La Sénia)</t>
+  </si>
+  <si>
+    <t>gerardquerolpascual@gmail.com</t>
+  </si>
+  <si>
+    <t>SI - 77</t>
+  </si>
+  <si>
+    <t>Ferran Mestre Martorell</t>
+  </si>
+  <si>
+    <t>SI - 78</t>
+  </si>
+  <si>
+    <t>SI - 79</t>
+  </si>
+  <si>
+    <t>47483670-D</t>
+  </si>
+  <si>
+    <t>C/ Sevilla, nº8 (La Sénia)</t>
+  </si>
+  <si>
+    <t>ferranmestremartorell1@gmail.com</t>
+  </si>
+  <si>
+    <t>Ramon Centelles Ferreres</t>
+  </si>
+  <si>
+    <t>47862715-Z</t>
+  </si>
+  <si>
+    <t>C/ Sevilla 2n 1a (La Sénia)</t>
+  </si>
+  <si>
+    <t>rcentellesf@hotmail.com</t>
+  </si>
+  <si>
+    <t>SI - 80</t>
+  </si>
+  <si>
+    <t>SI - 81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joana Casajust Ortodena </t>
+  </si>
+  <si>
+    <t>joana.casajust@gmail.com</t>
+  </si>
+  <si>
+    <t>Av. Generalitat, nº32 (La Sénia)</t>
+  </si>
+  <si>
+    <t>47821672-A</t>
+  </si>
+  <si>
+    <t>SI - 82</t>
+  </si>
+  <si>
+    <t>SI - 83</t>
+  </si>
+  <si>
+    <t>SI - 84</t>
+  </si>
+  <si>
+    <t>Marta Tomàs Albiol</t>
+  </si>
+  <si>
+    <t>Passeig de la Clotada, nº 74 esc 2b (La Sénia)</t>
+  </si>
+  <si>
+    <t>martairaul@yahoo.es</t>
+  </si>
+  <si>
+    <t>SI - 85</t>
+  </si>
+  <si>
+    <t>Raul Juan Barberan</t>
+  </si>
+  <si>
+    <t>SI - 86</t>
+  </si>
+  <si>
+    <t>SI - 87</t>
+  </si>
+  <si>
+    <t>73260859-V</t>
+  </si>
+  <si>
+    <t>47627163-M</t>
+  </si>
+  <si>
+    <t>SI - 88</t>
+  </si>
+  <si>
+    <t>SI - 89</t>
+  </si>
+  <si>
+    <t>Alexis Gargallo Mormeneo</t>
+  </si>
+  <si>
+    <t>47827501-J</t>
+  </si>
+  <si>
+    <t>Passatge de l'Hort, bloc C, 5</t>
+  </si>
+  <si>
+    <t>alexis_gamo@hotmail.com</t>
+  </si>
+  <si>
+    <t>SI - 90</t>
+  </si>
+  <si>
+    <t>SI - 91</t>
+  </si>
+  <si>
+    <t>Alex Fernandez Garcia</t>
+  </si>
+  <si>
+    <t>SI - 92</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +2000,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-C0A];[Red]\-#,##0.00\ [$€-C0A]"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1883,6 +2093,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1966,7 +2183,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2027,9 +2244,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Excel Built-in Hyperlink 1" xfId="7"/>
@@ -2394,16 +2610,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J135"/>
+  <dimension ref="A1:J146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12" style="8" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="8" customWidth="1"/>
     <col min="3" max="3" width="41.85546875" style="8" customWidth="1"/>
     <col min="4" max="4" width="13" style="8" customWidth="1"/>
     <col min="5" max="5" width="33.140625" style="8" customWidth="1"/>
@@ -2437,7 +2653,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="J1" s="21"/>
     </row>
@@ -2463,625 +2679,624 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="16" t="s">
-        <v>483</v>
+        <v>648</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>484</v>
+        <v>649</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>485</v>
+        <v>650</v>
       </c>
       <c r="D3" s="16">
-        <v>686677706</v>
+        <v>663990838</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>486</v>
+        <v>651</v>
       </c>
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
       <c r="H3" s="18"/>
       <c r="I3" s="18" t="s">
-        <v>487</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="16" t="s">
-        <v>512</v>
+        <v>480</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="C4" s="16"/>
+        <v>481</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>482</v>
+      </c>
       <c r="D4" s="16">
-        <v>629920397</v>
+        <v>686677706</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>514</v>
+        <v>483</v>
       </c>
       <c r="F4" s="18"/>
       <c r="G4" s="18"/>
       <c r="H4" s="18"/>
       <c r="I4" s="18" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="31" customFormat="1">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="16" t="s">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>568</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>569</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="C5" s="16"/>
       <c r="D5" s="16">
-        <v>33781668602</v>
+        <v>629920397</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="F5" s="18"/>
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
       <c r="I5" s="18" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="31" customFormat="1">
+      <c r="A6" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>566</v>
+      </c>
+      <c r="D6" s="16">
+        <v>33781668602</v>
+      </c>
+      <c r="E6" s="17" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="16" t="s">
-        <v>472</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>473</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="D6" s="16">
-        <v>662440706</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>476</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
       <c r="I6" s="18" t="s">
-        <v>477</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="8">
-        <v>662596929</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="9">
-        <v>25</v>
-      </c>
-      <c r="I7" s="9"/>
+      <c r="A7" s="16" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>470</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>471</v>
+      </c>
+      <c r="D7" s="16">
+        <v>662440706</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>473</v>
+      </c>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="16" t="s">
-        <v>451</v>
+        <v>12</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>452</v>
+        <v>13</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>475</v>
+        <v>14</v>
       </c>
       <c r="D8" s="16">
-        <v>618399824</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>453</v>
-      </c>
-      <c r="F8" s="18"/>
+        <v>662596929</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H8" s="18">
-        <v>69</v>
+        <v>25</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="16" t="s">
-        <v>16</v>
+        <v>448</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>17</v>
+        <v>449</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>18</v>
+        <v>472</v>
       </c>
       <c r="D9" s="16">
-        <v>610155513</v>
+        <v>618399824</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>11</v>
-      </c>
+        <v>450</v>
+      </c>
+      <c r="F9" s="18"/>
       <c r="G9" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="18">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="16">
+        <v>610155513</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="18">
+        <v>67</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D11" s="16">
         <v>669117465</v>
       </c>
-      <c r="E10" s="23" t="s">
+      <c r="E11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="18">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="18">
         <v>52</v>
       </c>
-      <c r="I10" s="18" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="8" t="s">
+      <c r="I11" s="18" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D12" s="8">
         <v>649313236</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="9">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="9">
         <v>60</v>
       </c>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="16" t="s">
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <v>664156171</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="E13" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="18">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="18">
         <v>55</v>
       </c>
-      <c r="I12" s="18" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8">
-        <v>657585101</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="9">
-        <v>6</v>
-      </c>
-      <c r="I13" s="9"/>
+      <c r="I13" s="18" t="s">
+        <v>548</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" s="8">
-        <v>669106838</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>39</v>
+        <v>657585101</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="9">
+        <v>6</v>
+      </c>
       <c r="I14" s="9"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="8">
+        <v>669106838</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B16" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8">
+      <c r="C16" s="16"/>
+      <c r="D16" s="16">
         <v>691627328</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E16" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="9">
+      <c r="F16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="18">
         <v>51</v>
       </c>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="8" t="s">
+      <c r="I16" s="18" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="16" t="s">
+        <v>654</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="C17" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="D17" s="16">
+        <v>680909027</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="8">
-        <v>680909027</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="F17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="18">
+        <v>53</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="9">
-        <v>53</v>
-      </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D18" s="8">
+        <v>642776314</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="8">
-        <v>642776314</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="F18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="16" t="s">
+      <c r="B19" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="C19" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="D19" s="16">
+        <v>670593004</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="16">
-        <v>670593004</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="18">
+      <c r="F19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="18">
         <v>26</v>
       </c>
-      <c r="I18" s="18" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="8">
-        <v>630491698</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="9">
-        <v>27</v>
-      </c>
-      <c r="I19" s="9"/>
+      <c r="I19" s="18" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="8" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D20" s="8">
-        <v>697259327</v>
+        <v>630491698</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+        <v>56</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="9">
+        <v>27</v>
+      </c>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D21" s="8">
-        <v>601336931</v>
+        <v>697259327</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="8">
+        <v>601336931</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="D23" s="16">
+        <v>697542794</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="16">
-        <v>697542794</v>
-      </c>
-      <c r="E22" s="19" t="s">
+      <c r="F23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="18">
+        <v>28</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H22" s="18">
-        <v>28</v>
-      </c>
-      <c r="I22" s="18" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="8" t="s">
+      <c r="D24" s="8">
+        <v>628079191</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="8">
-        <v>628079191</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H23" s="9">
+      <c r="F24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="9">
         <v>66</v>
       </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="D24" s="16">
-        <v>680447678</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="18">
-        <v>23</v>
-      </c>
-      <c r="I24" s="18" t="s">
-        <v>571</v>
-      </c>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D25" s="16">
-        <v>662100614</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>80</v>
+        <v>680447678</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>74</v>
       </c>
       <c r="F25" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H25" s="18"/>
+        <v>75</v>
+      </c>
+      <c r="H25" s="18">
+        <v>23</v>
+      </c>
       <c r="I25" s="18" t="s">
-        <v>466</v>
+        <v>568</v>
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="8">
-        <v>680782282</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H26" s="9">
-        <v>29</v>
-      </c>
-      <c r="I26" s="9"/>
+      <c r="A26" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>602</v>
+      </c>
+      <c r="D26" s="16">
+        <v>662567545</v>
+      </c>
+      <c r="E26" s="17" t="s">
+        <v>603</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18" t="s">
+        <v>604</v>
+      </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="16" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="D27" s="16">
-        <v>666314386</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>88</v>
+        <v>662100614</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>79</v>
       </c>
       <c r="F27" s="18" t="s">
         <v>11</v>
@@ -3089,28 +3304,26 @@
       <c r="G27" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="18">
-        <v>30</v>
-      </c>
+      <c r="H27" s="18"/>
       <c r="I27" s="18" t="s">
-        <v>542</v>
+        <v>463</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="16" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="D28" s="16">
-        <v>617691294</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>92</v>
+        <v>680782282</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>83</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>11</v>
@@ -3119,54 +3332,56 @@
         <v>11</v>
       </c>
       <c r="H28" s="18">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>523</v>
+        <v>636</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="8">
-        <v>669850019</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H29" s="9">
-        <v>31</v>
-      </c>
-      <c r="I29" s="9"/>
+      <c r="A29" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="16">
+        <v>666314386</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="18">
+        <v>30</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" s="16" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="D30" s="16">
-        <v>660228868</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>100</v>
+        <v>617691294</v>
+      </c>
+      <c r="E30" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>11</v>
@@ -3175,24 +3390,27 @@
         <v>11</v>
       </c>
       <c r="H30" s="18">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>564</v>
+        <v>520</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
+      </c>
+      <c r="D31" s="8">
+        <v>669850019</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>11</v>
@@ -3201,586 +3419,594 @@
         <v>11</v>
       </c>
       <c r="H31" s="9">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D32" s="16">
+        <v>660228868</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="18">
+        <v>32</v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="16">
+        <v>680929054</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" s="18">
+        <v>76</v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="C34" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="D34" s="16">
+        <v>657167082</v>
+      </c>
+      <c r="E34" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="16">
-        <v>657167082</v>
-      </c>
-      <c r="E32" s="23" t="s">
+      <c r="F34" s="18"/>
+      <c r="G34" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="24">
+        <v>18</v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H32" s="24">
-        <v>18</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="8" t="s">
+      <c r="B35" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="D35" s="8">
+        <v>617885785</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D33" s="8">
-        <v>617885785</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H33" s="9">
+      <c r="F35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" s="9">
         <v>73</v>
       </c>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="8">
-        <v>662508573</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H34" s="9">
-        <v>11</v>
-      </c>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="16">
-        <v>671757198</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G35" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="18">
-        <v>33</v>
-      </c>
-      <c r="I35" s="18" t="s">
-        <v>583</v>
-      </c>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" s="8">
+        <v>662508573</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="9">
+        <v>11</v>
+      </c>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D37" s="16">
+        <v>671757198</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H37" s="18">
+        <v>33</v>
+      </c>
+      <c r="I37" s="18" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="D38" s="8">
+        <v>638761515</v>
+      </c>
+      <c r="E38" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="8">
-        <v>638761515</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="F38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H38" s="9">
+        <v>34</v>
+      </c>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H36" s="9">
-        <v>34</v>
-      </c>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="8" t="s">
+      <c r="B39" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="E39" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E37" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="16" t="s">
-        <v>461</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>465</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>462</v>
-      </c>
-      <c r="D38" s="16">
-        <v>627732829</v>
-      </c>
-      <c r="E38" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="16" t="s">
-        <v>488</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>489</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>490</v>
-      </c>
-      <c r="D39" s="20">
-        <v>711753415</v>
-      </c>
-      <c r="E39" s="17" t="s">
-        <v>491</v>
-      </c>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18" t="s">
-        <v>492</v>
-      </c>
+      <c r="F39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="16" t="s">
+        <v>458</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>462</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>459</v>
+      </c>
+      <c r="D40" s="16">
+        <v>627732829</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>486</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="D41" s="20">
+        <v>711753415</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="C40" s="16" t="s">
+      <c r="D42" s="16">
+        <v>680171222</v>
+      </c>
+      <c r="E42" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="D40" s="16">
-        <v>680171222</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H40" s="18">
+      <c r="F42" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H42" s="18">
         <v>58</v>
       </c>
-      <c r="I40" s="18" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D41" s="8">
-        <v>649239741</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D42" s="8">
-        <v>646327873</v>
-      </c>
-      <c r="E42" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H42" s="9">
-        <v>20</v>
-      </c>
-      <c r="I42" s="9"/>
+      <c r="I42" s="18" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="8" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D43" s="8">
-        <v>655029055</v>
+        <v>649239741</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="F43" s="9"/>
+        <v>135</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="D44" s="8">
-        <v>673029092</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>148</v>
+        <v>646327873</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="G44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H44" s="9">
+        <v>20</v>
+      </c>
       <c r="I44" s="9"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="16" t="s">
-        <v>538</v>
+        <v>140</v>
       </c>
       <c r="B45" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="C45" s="16"/>
+        <v>141</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="D45" s="16">
-        <v>611479155</v>
-      </c>
-      <c r="E45" s="17" t="s">
-        <v>540</v>
+        <v>655029055</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>143</v>
       </c>
       <c r="F45" s="18"/>
       <c r="G45" s="18"/>
       <c r="H45" s="18"/>
       <c r="I45" s="18" t="s">
-        <v>541</v>
+        <v>647</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" s="8">
+        <v>673029092</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="C47" s="16"/>
+      <c r="D47" s="16">
+        <v>611479155</v>
+      </c>
+      <c r="E47" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="C48" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D48" s="8">
+        <v>680824187</v>
+      </c>
+      <c r="E48" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="D46" s="8">
-        <v>680824187</v>
-      </c>
-      <c r="E46" s="8" t="s">
+      <c r="F48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="9">
+        <v>35</v>
+      </c>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H46" s="9">
-        <v>35</v>
-      </c>
-      <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="8" t="s">
+      <c r="B49" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="C49" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="D49" s="16">
+        <v>639378504</v>
+      </c>
+      <c r="E49" s="23" t="s">
         <v>155</v>
       </c>
-      <c r="D47" s="8">
-        <v>639378504</v>
-      </c>
-      <c r="E47" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H47" s="9">
+      <c r="F49" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H49" s="18">
         <v>36</v>
       </c>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="B48" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="C48" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D48" s="16">
-        <v>659520751</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H48" s="18">
-        <v>76</v>
-      </c>
-      <c r="I48" s="18" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="D49" s="8">
-        <v>653974033</v>
-      </c>
-      <c r="E49" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H49" s="11">
-        <v>15</v>
-      </c>
-      <c r="I49" s="9"/>
+      <c r="I49" s="18" t="s">
+        <v>612</v>
+      </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" s="16" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="D50" s="16">
-        <v>626232223</v>
-      </c>
-      <c r="E50" s="27" t="s">
-        <v>168</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>11</v>
-      </c>
+        <v>659520751</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="18"/>
       <c r="G50" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H50" s="18">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" s="16" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B51" s="16" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="D51" s="16">
-        <v>607215084</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>172</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H51" s="18">
-        <v>37</v>
+        <v>653974033</v>
+      </c>
+      <c r="E51" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="18"/>
+      <c r="G51" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H51" s="24">
+        <v>15</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>522</v>
+        <v>629</v>
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="D52" s="8">
-        <v>619320227</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="F52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="A52" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="16">
+        <v>626232223</v>
+      </c>
+      <c r="E52" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H52" s="18">
+        <v>13</v>
+      </c>
+      <c r="I52" s="18" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" s="8">
-        <v>636508750</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H53" s="9">
-        <v>38</v>
-      </c>
-      <c r="I53" s="9"/>
+      <c r="A53" s="16" t="s">
+        <v>618</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>621</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>622</v>
+      </c>
+      <c r="D53" s="16">
+        <v>603662154</v>
+      </c>
+      <c r="E53" s="17" t="s">
+        <v>623</v>
+      </c>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18" t="s">
+        <v>619</v>
+      </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="16" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B54" s="16" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="D54" s="16">
-        <v>690394077</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>184</v>
+        <v>607215084</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>171</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>11</v>
@@ -3789,27 +4015,27 @@
         <v>11</v>
       </c>
       <c r="H54" s="18">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="8" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="D55" s="8">
-        <v>654700635</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>187</v>
+        <v>619320227</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>175</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>11</v>
@@ -3819,49 +4045,47 @@
       <c r="I55" s="9"/>
     </row>
     <row r="56" spans="1:9">
-      <c r="A56" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="B56" s="16" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D56" s="16">
-        <v>635084285</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H56" s="18">
-        <v>3</v>
-      </c>
-      <c r="I56" s="18" t="s">
-        <v>527</v>
-      </c>
+      <c r="A56" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" s="8">
+        <v>636508750</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H56" s="9">
+        <v>38</v>
+      </c>
+      <c r="I56" s="9"/>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" s="16" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B57" s="16" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="D57" s="16">
-        <v>661195170</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>195</v>
+        <v>690394077</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>183</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>11</v>
@@ -3870,47 +4094,50 @@
         <v>11</v>
       </c>
       <c r="H57" s="18">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>573</v>
+        <v>522</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" s="16" t="s">
-        <v>467</v>
+        <v>613</v>
       </c>
       <c r="B58" s="16" t="s">
-        <v>468</v>
+        <v>614</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>469</v>
+        <v>615</v>
       </c>
       <c r="D58" s="16">
-        <v>682635651</v>
-      </c>
-      <c r="E58" s="17" t="s">
-        <v>470</v>
+        <v>680759586</v>
+      </c>
+      <c r="E58" s="23" t="s">
+        <v>616</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
       <c r="I58" s="18" t="s">
-        <v>471</v>
+        <v>617</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="8" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>198</v>
+        <v>55</v>
+      </c>
+      <c r="D59" s="8">
+        <v>654700635</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>11</v>
@@ -3920,124 +4147,135 @@
       <c r="I59" s="9"/>
     </row>
     <row r="60" spans="1:9">
-      <c r="A60" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="F60" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="A60" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="D60" s="16">
+        <v>635084285</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H60" s="18">
+        <v>3</v>
+      </c>
+      <c r="I60" s="18" t="s">
+        <v>524</v>
+      </c>
     </row>
     <row r="61" spans="1:9">
-      <c r="A61" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="D61" s="8">
-        <v>647547870</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="F61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="A61" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="16">
+        <v>661195170</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="F61" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H61" s="18">
+        <v>54</v>
+      </c>
+      <c r="I61" s="18" t="s">
+        <v>570</v>
+      </c>
     </row>
     <row r="62" spans="1:9">
-      <c r="A62" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>206</v>
-      </c>
-      <c r="C62" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="D62" s="28">
-        <v>693696340</v>
-      </c>
-      <c r="E62" s="29" t="s">
-        <v>544</v>
-      </c>
-      <c r="F62" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" s="30"/>
-      <c r="H62" s="30"/>
-      <c r="I62" s="30" t="s">
-        <v>545</v>
+      <c r="A62" s="16" t="s">
+        <v>464</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>465</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>466</v>
+      </c>
+      <c r="D62" s="16">
+        <v>682635651</v>
+      </c>
+      <c r="E62" s="17" t="s">
+        <v>467</v>
+      </c>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D63" s="8">
-        <v>626154286</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="F63" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="A63" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="D63" s="16"/>
+      <c r="E63" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="F63" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18" t="s">
+        <v>634</v>
+      </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="B64" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D64" s="8">
-        <v>679909974</v>
-      </c>
-      <c r="E64" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" s="9">
-        <v>71</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="8" t="s">
-        <v>216</v>
+        <v>200</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>201</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>9</v>
+        <v>202</v>
       </c>
       <c r="D65" s="8">
-        <v>695381567</v>
-      </c>
-      <c r="E65" s="13" t="s">
-        <v>217</v>
+        <v>647547870</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>203</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>11</v>
@@ -4047,86 +4285,92 @@
       <c r="I65" s="9"/>
     </row>
     <row r="66" spans="1:9">
-      <c r="A66" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" s="8">
-        <v>650588562</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="A66" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="C66" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D66" s="28">
+        <v>693696340</v>
+      </c>
+      <c r="E66" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="F66" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="30"/>
+      <c r="H66" s="30"/>
+      <c r="I66" s="30" t="s">
+        <v>542</v>
+      </c>
     </row>
     <row r="67" spans="1:9">
-      <c r="A67" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="B67" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="D67" s="8">
-        <v>603789942</v>
-      </c>
-      <c r="E67" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="A67" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D67" s="16">
+        <v>626154286</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="18" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="68" spans="1:9">
       <c r="A68" s="8" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D68" s="8">
-        <v>669071556</v>
+        <v>679909974</v>
       </c>
       <c r="E68" s="14" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F68" s="9"/>
       <c r="G68" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H68" s="9">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I68" s="9"/>
     </row>
     <row r="69" spans="1:9">
       <c r="A69" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>231</v>
+        <v>215</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="D69" s="8">
-        <v>686238527</v>
-      </c>
-      <c r="E69" s="8" t="s">
-        <v>232</v>
+        <v>695381567</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>11</v>
@@ -4137,215 +4381,196 @@
     </row>
     <row r="70" spans="1:9">
       <c r="A70" s="16" t="s">
-        <v>577</v>
+        <v>630</v>
       </c>
       <c r="B70" s="16" t="s">
-        <v>578</v>
+        <v>633</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>582</v>
+        <v>632</v>
       </c>
       <c r="D70" s="16">
-        <v>606153231</v>
-      </c>
-      <c r="E70" s="17" t="s">
-        <v>579</v>
+        <v>606213784</v>
+      </c>
+      <c r="E70" s="23" t="s">
+        <v>631</v>
       </c>
       <c r="F70" s="18"/>
       <c r="G70" s="18"/>
       <c r="H70" s="18"/>
       <c r="I70" s="18" t="s">
-        <v>580</v>
+        <v>629</v>
       </c>
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="8" t="s">
-        <v>458</v>
-      </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H71" s="9">
-        <v>78</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" s="8">
+        <v>650588562</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
       <c r="I71" s="9"/>
     </row>
     <row r="72" spans="1:9">
       <c r="A72" s="8" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D72" s="8">
-        <v>650834513</v>
-      </c>
-      <c r="E72" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="F72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H72" s="9">
-        <v>39</v>
-      </c>
+        <v>603789942</v>
+      </c>
+      <c r="E72" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
     <row r="73" spans="1:9">
       <c r="A73" s="8" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="D73" s="8">
-        <v>636635907</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="F73" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
+        <v>669071556</v>
+      </c>
+      <c r="E73" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H73" s="9">
+        <v>74</v>
+      </c>
       <c r="I73" s="9"/>
     </row>
     <row r="74" spans="1:9">
-      <c r="A74" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="B74" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="D74" s="16">
-        <v>640286323</v>
-      </c>
-      <c r="E74" s="16"/>
-      <c r="F74" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H74" s="18">
-        <v>75</v>
-      </c>
-      <c r="I74" s="18" t="s">
-        <v>528</v>
-      </c>
+      <c r="A74" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D74" s="8">
+        <v>686238527</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:9">
       <c r="A75" s="16" t="s">
-        <v>244</v>
+        <v>574</v>
       </c>
       <c r="B75" s="16" t="s">
-        <v>245</v>
+        <v>575</v>
       </c>
       <c r="C75" s="16" t="s">
-        <v>507</v>
+        <v>579</v>
       </c>
       <c r="D75" s="16">
-        <v>697767275</v>
-      </c>
-      <c r="E75" s="19" t="s">
-        <v>246</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H75" s="18">
-        <v>40</v>
-      </c>
+        <v>606153231</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>576</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
       <c r="I75" s="18" t="s">
-        <v>506</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76" spans="1:9">
-      <c r="A76" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="B76" s="16" t="s">
-        <v>248</v>
-      </c>
-      <c r="C76" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="D76" s="16">
-        <v>666740788</v>
-      </c>
-      <c r="E76" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H76" s="18">
-        <v>9</v>
-      </c>
-      <c r="I76" s="18" t="s">
-        <v>532</v>
-      </c>
+      <c r="A76" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H76" s="9">
+        <v>78</v>
+      </c>
+      <c r="I76" s="9"/>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="16" t="s">
-        <v>251</v>
+        <v>232</v>
       </c>
       <c r="B77" s="16" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="C77" s="16" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D77" s="16">
-        <v>692303322</v>
+        <v>650834513</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>254</v>
+        <v>235</v>
       </c>
       <c r="F77" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G77" s="18"/>
-      <c r="H77" s="18"/>
+      <c r="G77" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H77" s="18">
+        <v>39</v>
+      </c>
       <c r="I77" s="18" t="s">
-        <v>508</v>
+        <v>605</v>
       </c>
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="8" t="s">
-        <v>255</v>
+        <v>236</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="D78" s="8">
-        <v>695479680</v>
+        <v>636635907</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="F78" s="9" t="s">
         <v>11</v>
@@ -4355,43 +4580,47 @@
       <c r="I78" s="9"/>
     </row>
     <row r="79" spans="1:9">
-      <c r="A79" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B79" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D79" s="8">
-        <v>680650890</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F79" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="A79" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="D79" s="16">
+        <v>640286323</v>
+      </c>
+      <c r="E79" s="16"/>
+      <c r="F79" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H79" s="18">
+        <v>75</v>
+      </c>
+      <c r="I79" s="18" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="16" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="B80" s="16" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C80" s="16" t="s">
-        <v>265</v>
+        <v>504</v>
       </c>
       <c r="D80" s="16">
-        <v>676709599</v>
-      </c>
-      <c r="E80" s="27" t="s">
-        <v>266</v>
+        <v>697767275</v>
+      </c>
+      <c r="E80" s="19" t="s">
+        <v>245</v>
       </c>
       <c r="F80" s="18" t="s">
         <v>11</v>
@@ -4400,115 +4629,127 @@
         <v>11</v>
       </c>
       <c r="H80" s="18">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>531</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:9">
-      <c r="A81" s="31" t="s">
-        <v>267</v>
-      </c>
-      <c r="B81" s="31" t="s">
-        <v>268</v>
-      </c>
-      <c r="C81" s="31" t="s">
-        <v>269</v>
-      </c>
-      <c r="D81" s="31">
-        <v>697530316</v>
-      </c>
-      <c r="E81" s="31" t="s">
-        <v>270</v>
-      </c>
-      <c r="F81" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="32">
-        <v>72</v>
-      </c>
-      <c r="I81" s="32"/>
+      <c r="A81" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="D81" s="16">
+        <v>666740788</v>
+      </c>
+      <c r="E81" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F81" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="18">
+        <v>9</v>
+      </c>
+      <c r="I81" s="18" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="16" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="B82" s="16" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
       <c r="C82" s="16" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="D82" s="16">
-        <v>658639102</v>
-      </c>
-      <c r="E82" s="17" t="s">
-        <v>555</v>
+        <v>680347582</v>
+      </c>
+      <c r="E82" s="32" t="s">
+        <v>590</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
       <c r="H82" s="18"/>
       <c r="I82" s="18" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
     </row>
     <row r="83" spans="1:9">
-      <c r="A83" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B83" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D83" s="8">
-        <v>659444154</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="A83" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="B83" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="D83" s="16">
+        <v>692303322</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F83" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="84" spans="1:9">
-      <c r="A84" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="B84" s="16" t="s">
-        <v>275</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D84" s="16">
-        <v>679077732</v>
-      </c>
-      <c r="E84" s="23" t="s">
-        <v>277</v>
-      </c>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H84" s="18">
-        <v>68</v>
-      </c>
-      <c r="I84" s="18" t="s">
-        <v>517</v>
-      </c>
+      <c r="A84" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D84" s="8">
+        <v>695479680</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
     </row>
     <row r="85" spans="1:9">
       <c r="A85" s="8" t="s">
-        <v>278</v>
+        <v>258</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="D85" s="8">
+        <v>680650890</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="F85" s="9" t="s">
         <v>11</v>
@@ -4519,19 +4760,19 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="16" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B86" s="16" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C86" s="16" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="D86" s="16">
-        <v>699299431</v>
-      </c>
-      <c r="E86" s="16" t="s">
-        <v>282</v>
+        <v>676709599</v>
+      </c>
+      <c r="E86" s="27" t="s">
+        <v>265</v>
       </c>
       <c r="F86" s="18" t="s">
         <v>11</v>
@@ -4540,368 +4781,348 @@
         <v>11</v>
       </c>
       <c r="H86" s="18">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="B87" s="8" t="s">
-        <v>284</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>285</v>
-      </c>
-      <c r="D87" s="8">
-        <v>628431428</v>
-      </c>
-      <c r="E87" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H87" s="9">
-        <v>41</v>
-      </c>
-      <c r="I87" s="9"/>
+      <c r="A87" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B87" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="D87" s="16">
+        <v>697530316</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="F87" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H87" s="18">
+        <v>72</v>
+      </c>
+      <c r="I87" s="18" t="s">
+        <v>606</v>
+      </c>
     </row>
     <row r="88" spans="1:9">
       <c r="A88" s="16" t="s">
-        <v>287</v>
+        <v>549</v>
       </c>
       <c r="B88" s="16" t="s">
-        <v>288</v>
+        <v>550</v>
       </c>
       <c r="C88" s="16" t="s">
-        <v>289</v>
+        <v>551</v>
       </c>
       <c r="D88" s="16">
-        <v>639736967</v>
-      </c>
-      <c r="E88" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="F88" s="18" t="s">
-        <v>11</v>
-      </c>
+        <v>658639102</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>552</v>
+      </c>
+      <c r="F88" s="18"/>
       <c r="G88" s="18"/>
       <c r="H88" s="18"/>
       <c r="I88" s="18" t="s">
-        <v>585</v>
+        <v>553</v>
       </c>
     </row>
     <row r="89" spans="1:9">
-      <c r="A89" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="B89" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="D89" s="16">
-        <v>687811446</v>
-      </c>
-      <c r="E89" s="19" t="s">
-        <v>294</v>
-      </c>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="18">
-        <v>77</v>
-      </c>
-      <c r="I89" s="18" t="s">
-        <v>574</v>
-      </c>
+      <c r="A89" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D89" s="8">
+        <v>659444154</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
     </row>
     <row r="90" spans="1:9">
       <c r="A90" s="16" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="B90" s="16" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="C90" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D90" s="25">
-        <v>662248561</v>
-      </c>
-      <c r="E90" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="F90" s="18" t="s">
-        <v>11</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="D90" s="16">
+        <v>679077732</v>
+      </c>
+      <c r="E90" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="F90" s="18"/>
       <c r="G90" s="18" t="s">
-        <v>299</v>
+        <v>11</v>
       </c>
       <c r="H90" s="18">
-        <v>8</v>
+        <v>68</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="91" spans="1:9">
       <c r="A91" s="8" t="s">
-        <v>300</v>
-      </c>
-      <c r="B91" s="8" t="s">
-        <v>301</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>302</v>
-      </c>
-      <c r="D91" s="8">
-        <v>680134630</v>
-      </c>
-      <c r="E91" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="H91" s="11">
-        <v>2</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
       <c r="I91" s="9"/>
     </row>
     <row r="92" spans="1:9">
-      <c r="A92" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B92" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="C92" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="D92" s="8">
-        <v>690317676</v>
-      </c>
-      <c r="E92" s="14" t="s">
-        <v>307</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H92" s="9">
-        <v>42</v>
-      </c>
-      <c r="I92" s="9"/>
+      <c r="A92" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B92" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D92" s="16">
+        <v>699299431</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H92" s="18">
+        <v>10</v>
+      </c>
+      <c r="I92" s="18" t="s">
+        <v>518</v>
+      </c>
     </row>
     <row r="93" spans="1:9">
-      <c r="A93" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B93" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="D93" s="16">
-        <v>654080490</v>
-      </c>
-      <c r="E93" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="F93" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" s="18"/>
-      <c r="H93" s="18"/>
-      <c r="I93" s="18" t="s">
-        <v>547</v>
-      </c>
+      <c r="A93" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="D93" s="8">
+        <v>628431428</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H93" s="9">
+        <v>41</v>
+      </c>
+      <c r="I93" s="9"/>
     </row>
     <row r="94" spans="1:9">
       <c r="A94" s="16" t="s">
-        <v>312</v>
+        <v>286</v>
       </c>
       <c r="B94" s="16" t="s">
-        <v>313</v>
+        <v>287</v>
       </c>
       <c r="C94" s="16" t="s">
-        <v>314</v>
+        <v>288</v>
       </c>
       <c r="D94" s="16">
-        <v>622123875</v>
-      </c>
-      <c r="E94" s="23" t="s">
-        <v>315</v>
-      </c>
-      <c r="F94" s="18"/>
-      <c r="G94" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H94" s="24">
-        <v>21</v>
-      </c>
+        <v>639736967</v>
+      </c>
+      <c r="E94" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
       <c r="I94" s="18" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
     </row>
     <row r="95" spans="1:9">
       <c r="A95" s="16" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="B95" s="16" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="C95" s="16" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="D95" s="16">
-        <v>447851972701</v>
-      </c>
-      <c r="E95" s="23" t="s">
-        <v>319</v>
+        <v>687811446</v>
+      </c>
+      <c r="E95" s="19" t="s">
+        <v>293</v>
       </c>
       <c r="F95" s="18"/>
-      <c r="G95" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="H95" s="24">
-        <v>57</v>
+      <c r="G95" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H95" s="18">
+        <v>77</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>504</v>
+        <v>571</v>
       </c>
     </row>
     <row r="96" spans="1:9">
-      <c r="A96" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="B96" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="D96" s="8">
-        <v>636572954</v>
-      </c>
-      <c r="E96" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="F96" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="A96" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D96" s="25">
+        <v>662248561</v>
+      </c>
+      <c r="E96" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="H96" s="18">
+        <v>8</v>
+      </c>
+      <c r="I96" s="18" t="s">
+        <v>507</v>
+      </c>
     </row>
     <row r="97" spans="1:9">
-      <c r="A97" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="B97" s="16" t="s">
-        <v>494</v>
-      </c>
-      <c r="C97" s="16" t="s">
-        <v>495</v>
-      </c>
-      <c r="D97" s="16">
-        <v>697970980</v>
-      </c>
-      <c r="E97" s="17" t="s">
-        <v>496</v>
-      </c>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="18"/>
-      <c r="I97" s="18" t="s">
-        <v>497</v>
-      </c>
+      <c r="A97" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D97" s="8">
+        <v>680134630</v>
+      </c>
+      <c r="E97" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="F97" s="9"/>
+      <c r="G97" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H97" s="11">
+        <v>2</v>
+      </c>
+      <c r="I97" s="9"/>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="16" t="s">
-        <v>324</v>
+        <v>607</v>
       </c>
       <c r="B98" s="16" t="s">
-        <v>325</v>
+        <v>608</v>
       </c>
       <c r="C98" s="16" t="s">
-        <v>326</v>
+        <v>609</v>
       </c>
       <c r="D98" s="16">
-        <v>656355398</v>
-      </c>
-      <c r="E98" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="F98" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H98" s="18">
-        <v>17</v>
-      </c>
+        <v>619154212</v>
+      </c>
+      <c r="E98" s="33" t="s">
+        <v>610</v>
+      </c>
+      <c r="F98" s="18"/>
+      <c r="G98" s="24"/>
+      <c r="H98" s="24"/>
       <c r="I98" s="18" t="s">
-        <v>518</v>
+        <v>611</v>
       </c>
     </row>
     <row r="99" spans="1:9">
-      <c r="A99" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="B99" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C99" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D99" s="8">
-        <v>669176261</v>
-      </c>
-      <c r="E99" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="F99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H99" s="9">
-        <v>50</v>
-      </c>
-      <c r="I99" s="9"/>
+      <c r="A99" s="16" t="s">
+        <v>592</v>
+      </c>
+      <c r="B99" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>593</v>
+      </c>
+      <c r="D99" s="16">
+        <v>652058661</v>
+      </c>
+      <c r="E99" s="23" t="s">
+        <v>596</v>
+      </c>
+      <c r="F99" s="18"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24"/>
+      <c r="I99" s="18" t="s">
+        <v>594</v>
+      </c>
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="16" t="s">
-        <v>332</v>
+        <v>303</v>
       </c>
       <c r="B100" s="16" t="s">
-        <v>333</v>
+        <v>304</v>
       </c>
       <c r="C100" s="16" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="D100" s="16">
-        <v>679956355</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>335</v>
+        <v>690317676</v>
+      </c>
+      <c r="E100" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="F100" s="18" t="s">
         <v>11</v>
@@ -4909,583 +5130,597 @@
       <c r="G100" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="H100" s="18">
-        <v>43</v>
-      </c>
-      <c r="I100" s="18" t="s">
-        <v>505</v>
+      <c r="H100" s="24">
+        <v>42</v>
+      </c>
+      <c r="I100" s="24" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="101" spans="1:9">
-      <c r="A101" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="B101" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="D101" s="8">
-        <v>664615738</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="A101" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="D101" s="16">
+        <v>654080490</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="F101" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="102" spans="1:9">
-      <c r="A102" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B102" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="C102" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="D102" s="8">
-        <v>648887335</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
+      <c r="A102" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102" s="16">
+        <v>622123875</v>
+      </c>
+      <c r="E102" s="23" t="s">
+        <v>314</v>
+      </c>
+      <c r="F102" s="18"/>
+      <c r="G102" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H102" s="24">
+        <v>21</v>
+      </c>
+      <c r="I102" s="18" t="s">
+        <v>546</v>
+      </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="16" t="s">
-        <v>344</v>
+        <v>637</v>
       </c>
       <c r="B103" s="16" t="s">
-        <v>345</v>
+        <v>645</v>
       </c>
       <c r="C103" s="16" t="s">
-        <v>346</v>
+        <v>638</v>
       </c>
       <c r="D103" s="16">
-        <v>676251002</v>
-      </c>
-      <c r="E103" s="17" t="s">
-        <v>550</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
+        <v>657415426</v>
+      </c>
+      <c r="E103" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="F103" s="18"/>
+      <c r="G103" s="24"/>
+      <c r="H103" s="24"/>
       <c r="I103" s="18" t="s">
-        <v>548</v>
+        <v>640</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="16" t="s">
-        <v>478</v>
+        <v>315</v>
       </c>
       <c r="B104" s="16" t="s">
-        <v>479</v>
+        <v>316</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>480</v>
+        <v>317</v>
       </c>
       <c r="D104" s="16">
-        <v>608956073</v>
-      </c>
-      <c r="E104" s="17" t="s">
-        <v>481</v>
+        <v>447851972701</v>
+      </c>
+      <c r="E104" s="23" t="s">
+        <v>318</v>
       </c>
       <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="18"/>
+      <c r="G104" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H104" s="24">
+        <v>57</v>
+      </c>
       <c r="I104" s="18" t="s">
-        <v>482</v>
+        <v>501</v>
       </c>
     </row>
     <row r="105" spans="1:9">
       <c r="A105" s="8" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>348</v>
+        <v>320</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>349</v>
+        <v>321</v>
       </c>
       <c r="D105" s="8">
-        <v>660828491</v>
+        <v>636572954</v>
       </c>
       <c r="E105" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="F105" s="9"/>
+        <v>322</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G105" s="9"/>
       <c r="H105" s="9"/>
       <c r="I105" s="9"/>
     </row>
     <row r="106" spans="1:9">
       <c r="A106" s="16" t="s">
-        <v>351</v>
+        <v>490</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>352</v>
+        <v>491</v>
       </c>
       <c r="C106" s="16" t="s">
-        <v>353</v>
+        <v>492</v>
       </c>
       <c r="D106" s="16">
-        <v>622714902</v>
-      </c>
-      <c r="E106" s="23" t="s">
-        <v>354</v>
+        <v>697970980</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>493</v>
       </c>
       <c r="F106" s="18"/>
-      <c r="G106" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="H106" s="24">
-        <v>7</v>
-      </c>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
       <c r="I106" s="18" t="s">
-        <v>563</v>
+        <v>494</v>
       </c>
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="16" t="s">
-        <v>355</v>
+        <v>323</v>
       </c>
       <c r="B107" s="16" t="s">
-        <v>356</v>
+        <v>324</v>
       </c>
       <c r="C107" s="16" t="s">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="D107" s="16">
-        <v>696587927</v>
-      </c>
-      <c r="E107" s="16" t="s">
-        <v>358</v>
+        <v>656355398</v>
+      </c>
+      <c r="E107" s="19" t="s">
+        <v>326</v>
       </c>
       <c r="F107" s="18" t="s">
         <v>11</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>359</v>
+        <v>11</v>
       </c>
       <c r="H107" s="18">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
     </row>
     <row r="108" spans="1:9">
       <c r="A108" s="8" t="s">
-        <v>360</v>
+        <v>327</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>361</v>
+        <v>329</v>
       </c>
       <c r="D108" s="8">
-        <v>662518760</v>
-      </c>
-      <c r="E108" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="F108" s="9"/>
+        <v>669176261</v>
+      </c>
+      <c r="E108" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="G108" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H108" s="9">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I108" s="9"/>
     </row>
     <row r="109" spans="1:9">
-      <c r="A109" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="D109" s="8">
-        <v>667932500</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H109" s="9">
-        <v>16</v>
-      </c>
-      <c r="I109" s="9"/>
+      <c r="A109" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B109" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="D109" s="16">
+        <v>679956355</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H109" s="18">
+        <v>43</v>
+      </c>
+      <c r="I109" s="18" t="s">
+        <v>502</v>
+      </c>
     </row>
     <row r="110" spans="1:9">
       <c r="A110" s="8" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="D110" s="8">
-        <v>662012200</v>
-      </c>
-      <c r="E110" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H110" s="9">
-        <v>48</v>
-      </c>
+        <v>664615738</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
       <c r="I110" s="9"/>
     </row>
     <row r="111" spans="1:9">
       <c r="A111" s="8" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="D111" s="8">
-        <v>642532392</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>373</v>
+        <v>648887335</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>342</v>
       </c>
       <c r="F111" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G111" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H111" s="9">
-        <v>56</v>
-      </c>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
       <c r="I111" s="9"/>
     </row>
     <row r="112" spans="1:9">
       <c r="A112" s="16" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="B112" s="16" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="C112" s="16" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="D112" s="16">
-        <v>679651798</v>
-      </c>
-      <c r="E112" s="16" t="s">
-        <v>376</v>
+        <v>676251002</v>
+      </c>
+      <c r="E112" s="17" t="s">
+        <v>547</v>
       </c>
       <c r="F112" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G112" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H112" s="18">
-        <v>4</v>
-      </c>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
       <c r="I112" s="18" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
     </row>
     <row r="113" spans="1:9">
-      <c r="A113" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B113" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="D113" s="8">
-        <v>660227585</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H113" s="9">
-        <v>22</v>
-      </c>
-      <c r="I113" s="9"/>
+      <c r="A113" s="16" t="s">
+        <v>475</v>
+      </c>
+      <c r="B113" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="D113" s="16">
+        <v>608956073</v>
+      </c>
+      <c r="E113" s="17" t="s">
+        <v>478</v>
+      </c>
+      <c r="F113" s="18"/>
+      <c r="G113" s="18"/>
+      <c r="H113" s="18"/>
+      <c r="I113" s="18" t="s">
+        <v>479</v>
+      </c>
     </row>
     <row r="114" spans="1:9">
-      <c r="A114" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B114" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>383</v>
-      </c>
-      <c r="D114" s="8">
-        <v>659073303</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>384</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H114" s="9">
-        <v>64</v>
-      </c>
-      <c r="I114" s="9"/>
+      <c r="A114" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B114" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114" s="16">
+        <v>660828491</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="F114" s="18"/>
+      <c r="G114" s="18"/>
+      <c r="H114" s="18"/>
+      <c r="I114" s="18" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="115" spans="1:9">
-      <c r="A115" s="8" t="s">
-        <v>385</v>
-      </c>
-      <c r="B115" s="8" t="s">
-        <v>386</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="D115" s="8">
-        <v>627126265</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="F115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H115" s="9">
-        <v>44</v>
-      </c>
-      <c r="I115" s="9"/>
+      <c r="A115" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B115" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="D115" s="16">
+        <v>622714902</v>
+      </c>
+      <c r="E115" s="23" t="s">
+        <v>352</v>
+      </c>
+      <c r="F115" s="18"/>
+      <c r="G115" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="H115" s="24">
+        <v>7</v>
+      </c>
+      <c r="I115" s="18" t="s">
+        <v>560</v>
+      </c>
     </row>
     <row r="116" spans="1:9">
-      <c r="A116" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="B116" s="8" t="s">
-        <v>390</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>391</v>
-      </c>
-      <c r="D116" s="8">
-        <v>692360703</v>
-      </c>
-      <c r="E116" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H116" s="9">
-        <v>65</v>
-      </c>
-      <c r="I116" s="9"/>
+      <c r="A116" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="B116" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D116" s="16">
+        <v>696587927</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="F116" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="18" t="s">
+        <v>357</v>
+      </c>
+      <c r="H116" s="18">
+        <v>1</v>
+      </c>
+      <c r="I116" s="18" t="s">
+        <v>500</v>
+      </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="8" t="s">
-        <v>393</v>
-      </c>
-      <c r="B117" s="8" t="s">
-        <v>394</v>
+        <v>358</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>395</v>
+        <v>359</v>
       </c>
       <c r="D117" s="8">
-        <v>646793333</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>396</v>
+        <v>662518760</v>
+      </c>
+      <c r="E117" s="14" t="s">
+        <v>360</v>
       </c>
       <c r="F117" s="9"/>
       <c r="G117" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H117" s="9">
-        <v>47</v>
+        <v>63</v>
       </c>
       <c r="I117" s="9"/>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="B118" s="20" t="s">
-        <v>499</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>500</v>
-      </c>
-      <c r="D118" s="20">
-        <v>680448566</v>
-      </c>
-      <c r="E118" s="22" t="s">
-        <v>501</v>
-      </c>
-      <c r="F118" s="18"/>
-      <c r="G118" s="18"/>
-      <c r="H118" s="18"/>
+        <v>361</v>
+      </c>
+      <c r="B118" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118" s="16">
+        <v>667932500</v>
+      </c>
+      <c r="E118" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="F118" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H118" s="18">
+        <v>16</v>
+      </c>
       <c r="I118" s="18" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="30">
-      <c r="A119" s="8" t="s">
-        <v>397</v>
-      </c>
-      <c r="B119" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>399</v>
-      </c>
-      <c r="D119" s="8">
-        <v>618030428</v>
-      </c>
-      <c r="E119" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H119" s="9">
-        <v>45</v>
-      </c>
-      <c r="I119" s="9"/>
+        <v>599</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B119" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D119" s="16">
+        <v>662012200</v>
+      </c>
+      <c r="E119" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H119" s="18">
+        <v>48</v>
+      </c>
+      <c r="I119" s="18" t="s">
+        <v>653</v>
+      </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="16" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="B120" s="16" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="C120" s="16" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="D120" s="16">
-        <v>636370464</v>
+        <v>642532392</v>
       </c>
       <c r="E120" s="16" t="s">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="F120" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="G120" s="18"/>
-      <c r="H120" s="18"/>
+      <c r="G120" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H120" s="18">
+        <v>56</v>
+      </c>
       <c r="I120" s="18" t="s">
-        <v>581</v>
+        <v>643</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="16" t="s">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="B121" s="16" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>407</v>
+        <v>296</v>
       </c>
       <c r="D121" s="16">
-        <v>686750575</v>
-      </c>
-      <c r="E121" s="23" t="s">
-        <v>408</v>
-      </c>
-      <c r="F121" s="18"/>
+        <v>679651798</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="F121" s="18" t="s">
+        <v>11</v>
+      </c>
       <c r="G121" s="18" t="s">
         <v>11</v>
       </c>
       <c r="H121" s="18">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="I121" s="18" t="s">
-        <v>565</v>
+        <v>506</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="8" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="D122" s="8">
-        <v>653486108</v>
+        <v>660227585</v>
       </c>
       <c r="E122" s="8" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="F122" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
+      <c r="G122" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H122" s="9">
+        <v>22</v>
+      </c>
       <c r="I122" s="9"/>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="16" t="s">
-        <v>413</v>
+        <v>584</v>
       </c>
       <c r="B123" s="16" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="D123" s="16">
-        <v>669367778</v>
+        <v>659073303</v>
       </c>
       <c r="E123" s="16" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="F123" s="18" t="s">
         <v>11</v>
@@ -5494,391 +5729,679 @@
         <v>11</v>
       </c>
       <c r="H123" s="18">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="I123" s="18" t="s">
-        <v>511</v>
+        <v>585</v>
       </c>
     </row>
     <row r="124" spans="1:9">
-      <c r="A124" s="16" t="s">
-        <v>533</v>
-      </c>
-      <c r="B124" s="16" t="s">
-        <v>534</v>
-      </c>
-      <c r="C124" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="D124" s="16">
-        <v>677894534</v>
-      </c>
-      <c r="E124" s="17" t="s">
-        <v>536</v>
-      </c>
-      <c r="F124" s="18"/>
-      <c r="G124" s="18"/>
-      <c r="H124" s="18"/>
-      <c r="I124" s="18" t="s">
-        <v>537</v>
-      </c>
+      <c r="A124" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="D124" s="8">
+        <v>627126265</v>
+      </c>
+      <c r="E124" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H124" s="9">
+        <v>44</v>
+      </c>
+      <c r="I124" s="9"/>
     </row>
     <row r="125" spans="1:9">
-      <c r="A125" s="16" t="s">
-        <v>454</v>
-      </c>
-      <c r="B125" s="16" t="s">
-        <v>455</v>
-      </c>
-      <c r="C125" s="16" t="s">
-        <v>456</v>
-      </c>
-      <c r="D125" s="16">
-        <v>690245061</v>
-      </c>
-      <c r="E125" s="16" t="s">
-        <v>457</v>
-      </c>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H125" s="18">
-        <v>70</v>
-      </c>
-      <c r="I125" s="18" t="s">
-        <v>520</v>
-      </c>
+      <c r="A125" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D125" s="8">
+        <v>692360703</v>
+      </c>
+      <c r="E125" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="F125" s="9"/>
+      <c r="G125" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H125" s="9">
+        <v>65</v>
+      </c>
+      <c r="I125" s="9"/>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="8" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="D126" s="8">
-        <v>656587486</v>
-      </c>
-      <c r="E126" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="F126" s="9" t="s">
-        <v>11</v>
-      </c>
+        <v>646793333</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F126" s="9"/>
       <c r="G126" s="9" t="s">
         <v>11</v>
       </c>
       <c r="H126" s="9">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="I126" s="9"/>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>422</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>423</v>
-      </c>
-      <c r="D127" s="16">
-        <v>627925153</v>
-      </c>
-      <c r="E127" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="F127" s="18" t="s">
-        <v>11</v>
-      </c>
+        <v>495</v>
+      </c>
+      <c r="B127" s="20" t="s">
+        <v>496</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>497</v>
+      </c>
+      <c r="D127" s="20">
+        <v>680448566</v>
+      </c>
+      <c r="E127" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="F127" s="18"/>
       <c r="G127" s="18"/>
       <c r="H127" s="18"/>
       <c r="I127" s="18" t="s">
-        <v>575</v>
+        <v>499</v>
       </c>
     </row>
     <row r="128" spans="1:9">
-      <c r="A128" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>426</v>
-      </c>
-      <c r="C128" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="D128" s="16">
-        <v>690371621</v>
-      </c>
-      <c r="E128" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="F128" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H128" s="18">
-        <v>46</v>
-      </c>
-      <c r="I128" s="18" t="s">
-        <v>526</v>
-      </c>
+      <c r="A128" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B128" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="D128" s="8">
+        <v>618030428</v>
+      </c>
+      <c r="E128" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="F128" s="9"/>
+      <c r="G128" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H128" s="9">
+        <v>45</v>
+      </c>
+      <c r="I128" s="9"/>
     </row>
     <row r="129" spans="1:9">
-      <c r="A129" s="8" t="s">
-        <v>428</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>429</v>
-      </c>
-      <c r="D129" s="8">
-        <v>694483339</v>
-      </c>
-      <c r="E129" s="8" t="s">
-        <v>430</v>
-      </c>
-      <c r="F129" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="I129" s="9"/>
+      <c r="A129" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="B129" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="D129" s="16">
+        <v>636370464</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="F129" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G129" s="18"/>
+      <c r="H129" s="18"/>
+      <c r="I129" s="18" t="s">
+        <v>578</v>
+      </c>
     </row>
     <row r="130" spans="1:9">
-      <c r="A130" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="B130" s="8" t="s">
-        <v>432</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D130" s="8">
-        <v>667215611</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="H130" s="9">
-        <v>5</v>
-      </c>
-      <c r="I130" s="9"/>
+      <c r="A130" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B130" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D130" s="16">
+        <v>686750575</v>
+      </c>
+      <c r="E130" s="23" t="s">
+        <v>405</v>
+      </c>
+      <c r="F130" s="18"/>
+      <c r="G130" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H130" s="18">
+        <v>62</v>
+      </c>
+      <c r="I130" s="18" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="131" spans="1:9">
-      <c r="A131" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>437</v>
-      </c>
-      <c r="D131" s="8">
-        <v>618371465</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>438</v>
-      </c>
-      <c r="F131" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="I131" s="9"/>
+      <c r="A131" s="16" t="s">
+        <v>624</v>
+      </c>
+      <c r="B131" s="16" t="s">
+        <v>625</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>626</v>
+      </c>
+      <c r="D131" s="16">
+        <v>628025140</v>
+      </c>
+      <c r="E131" s="23" t="s">
+        <v>627</v>
+      </c>
+      <c r="F131" s="18"/>
+      <c r="G131" s="18"/>
+      <c r="H131" s="18"/>
+      <c r="I131" s="18" t="s">
+        <v>628</v>
+      </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="16" t="s">
-        <v>439</v>
+        <v>641</v>
       </c>
       <c r="B132" s="16" t="s">
-        <v>440</v>
+        <v>644</v>
       </c>
       <c r="C132" s="16" t="s">
-        <v>441</v>
+        <v>638</v>
       </c>
       <c r="D132" s="16">
-        <v>662044610</v>
-      </c>
-      <c r="E132" s="16" t="s">
-        <v>442</v>
-      </c>
-      <c r="F132" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H132" s="18">
-        <v>61</v>
-      </c>
+        <v>657415426</v>
+      </c>
+      <c r="E132" s="23" t="s">
+        <v>639</v>
+      </c>
+      <c r="F132" s="18"/>
+      <c r="G132" s="18"/>
+      <c r="H132" s="18"/>
       <c r="I132" s="18" t="s">
-        <v>543</v>
+        <v>642</v>
       </c>
     </row>
     <row r="133" spans="1:9">
-      <c r="A133" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="B133" s="16" t="s">
-        <v>444</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>445</v>
-      </c>
-      <c r="D133" s="16">
-        <v>637116203</v>
-      </c>
-      <c r="E133" s="19" t="s">
-        <v>446</v>
-      </c>
-      <c r="F133" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G133" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H133" s="18">
-        <v>19</v>
-      </c>
-      <c r="I133" s="18" t="s">
-        <v>572</v>
-      </c>
+      <c r="A133" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>408</v>
+      </c>
+      <c r="D133" s="8">
+        <v>653486108</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
     </row>
     <row r="134" spans="1:9">
-      <c r="A134" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="B134" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="C134" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="D134" s="8">
-        <v>679795649</v>
-      </c>
-      <c r="E134" s="8" t="s">
-        <v>450</v>
-      </c>
-      <c r="F134" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="I134" s="9"/>
+      <c r="A134" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="B134" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D134" s="16">
+        <v>669367778</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="F134" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G134" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="18">
+        <v>49</v>
+      </c>
+      <c r="I134" s="18" t="s">
+        <v>508</v>
+      </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="16" t="s">
+        <v>530</v>
+      </c>
+      <c r="B135" s="16" t="s">
+        <v>531</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>532</v>
+      </c>
+      <c r="D135" s="16">
+        <v>677894534</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="F135" s="18"/>
+      <c r="G135" s="18"/>
+      <c r="H135" s="18"/>
+      <c r="I135" s="18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
+      <c r="A136" s="16" t="s">
+        <v>451</v>
+      </c>
+      <c r="B136" s="16" t="s">
+        <v>452</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>453</v>
+      </c>
+      <c r="D136" s="16">
+        <v>690245061</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="F136" s="18"/>
+      <c r="G136" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H136" s="18">
+        <v>70</v>
+      </c>
+      <c r="I136" s="18" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
+      <c r="A137" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="B137" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="D137" s="16">
+        <v>656587486</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="F137" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G137" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H137" s="18">
+        <v>24</v>
+      </c>
+      <c r="I137" s="18" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
+      <c r="A138" s="16" t="s">
+        <v>418</v>
+      </c>
+      <c r="B138" s="16" t="s">
+        <v>419</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="D138" s="16">
+        <v>627925153</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>421</v>
+      </c>
+      <c r="F138" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G138" s="18"/>
+      <c r="H138" s="18"/>
+      <c r="I138" s="18" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
+      <c r="A139" s="16" t="s">
+        <v>422</v>
+      </c>
+      <c r="B139" s="16" t="s">
+        <v>423</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D139" s="16">
+        <v>690371621</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>424</v>
+      </c>
+      <c r="F139" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G139" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H139" s="18">
+        <v>46</v>
+      </c>
+      <c r="I139" s="18" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
+      <c r="A140" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>426</v>
+      </c>
+      <c r="D140" s="8">
+        <v>694483339</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G140" s="9"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="9"/>
+    </row>
+    <row r="141" spans="1:9">
+      <c r="A141" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>429</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="D141" s="8">
+        <v>667215611</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="F141" s="9"/>
+      <c r="G141" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H141" s="9">
+        <v>5</v>
+      </c>
+      <c r="I141" s="9"/>
+    </row>
+    <row r="142" spans="1:9">
+      <c r="A142" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D142" s="8">
+        <v>618371465</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>435</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G142" s="9"/>
+      <c r="H142" s="9"/>
+      <c r="I142" s="9"/>
+    </row>
+    <row r="143" spans="1:9">
+      <c r="A143" s="16" t="s">
+        <v>436</v>
+      </c>
+      <c r="B143" s="16" t="s">
+        <v>437</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>438</v>
+      </c>
+      <c r="D143" s="16">
+        <v>662044610</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>439</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G143" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H143" s="18">
+        <v>61</v>
+      </c>
+      <c r="I143" s="18" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
+      <c r="A144" s="16" t="s">
+        <v>440</v>
+      </c>
+      <c r="B144" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>442</v>
+      </c>
+      <c r="D144" s="16">
+        <v>637116203</v>
+      </c>
+      <c r="E144" s="19" t="s">
+        <v>443</v>
+      </c>
+      <c r="F144" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H144" s="18">
+        <v>19</v>
+      </c>
+      <c r="I144" s="18" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
+      <c r="A145" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="D145" s="8">
+        <v>679795649</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="I145" s="9"/>
+    </row>
+    <row r="146" spans="1:9">
+      <c r="A146" s="16" t="s">
+        <v>554</v>
+      </c>
+      <c r="B146" s="16" t="s">
+        <v>555</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>556</v>
+      </c>
+      <c r="D146" s="16">
+        <v>670699967</v>
+      </c>
+      <c r="E146" s="17" t="s">
         <v>557</v>
       </c>
-      <c r="B135" s="16" t="s">
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16" t="s">
         <v>558</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>559</v>
-      </c>
-      <c r="D135" s="16">
-        <v>670699967</v>
-      </c>
-      <c r="E135" s="17" t="s">
-        <v>560</v>
-      </c>
-      <c r="F135" s="16"/>
-      <c r="G135" s="16"/>
-      <c r="H135" s="16"/>
-      <c r="I135" s="16" t="s">
-        <v>561</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <autoFilter ref="A1:I131"/>
+  <autoFilter ref="A1:I142"/>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="E10" r:id="rId2"/>
-    <hyperlink ref="E11" r:id="rId3"/>
-    <hyperlink ref="E12" r:id="rId4"/>
-    <hyperlink ref="E14" r:id="rId5"/>
-    <hyperlink ref="E15" r:id="rId6"/>
-    <hyperlink ref="E22" r:id="rId7"/>
-    <hyperlink ref="E25" r:id="rId8"/>
-    <hyperlink ref="E28" r:id="rId9"/>
-    <hyperlink ref="E32" r:id="rId10"/>
-    <hyperlink ref="E33" r:id="rId11"/>
-    <hyperlink ref="E37" r:id="rId12"/>
-    <hyperlink ref="E41" r:id="rId13"/>
-    <hyperlink ref="E43" r:id="rId14"/>
-    <hyperlink ref="E44" r:id="rId15"/>
-    <hyperlink ref="E47" r:id="rId16"/>
-    <hyperlink ref="E48" r:id="rId17"/>
-    <hyperlink ref="E49" r:id="rId18"/>
-    <hyperlink ref="E50" r:id="rId19"/>
-    <hyperlink ref="E54" r:id="rId20"/>
-    <hyperlink ref="E55" r:id="rId21"/>
-    <hyperlink ref="E59" r:id="rId22"/>
-    <hyperlink ref="E61" r:id="rId23"/>
-    <hyperlink ref="E62" r:id="rId24"/>
-    <hyperlink ref="E64" r:id="rId25"/>
-    <hyperlink ref="E67" r:id="rId26"/>
-    <hyperlink ref="E68" r:id="rId27"/>
-    <hyperlink ref="E69" r:id="rId28"/>
-    <hyperlink ref="E72" r:id="rId29"/>
-    <hyperlink ref="E75" r:id="rId30"/>
-    <hyperlink ref="E80" r:id="rId31"/>
-    <hyperlink ref="E84" r:id="rId32"/>
-    <hyperlink ref="E88" r:id="rId33"/>
-    <hyperlink ref="E89" r:id="rId34"/>
-    <hyperlink ref="E91" r:id="rId35"/>
-    <hyperlink ref="E92" r:id="rId36"/>
-    <hyperlink ref="E94" r:id="rId37"/>
-    <hyperlink ref="E95" r:id="rId38"/>
-    <hyperlink ref="E98" r:id="rId39"/>
-    <hyperlink ref="E99" r:id="rId40"/>
-    <hyperlink ref="E102" r:id="rId41"/>
-    <hyperlink ref="E106" r:id="rId42"/>
-    <hyperlink ref="E108" r:id="rId43"/>
-    <hyperlink ref="E109" r:id="rId44"/>
-    <hyperlink ref="E113" r:id="rId45"/>
-    <hyperlink ref="E115" r:id="rId46"/>
-    <hyperlink ref="E116" r:id="rId47"/>
-    <hyperlink ref="E119" r:id="rId48"/>
-    <hyperlink ref="E121" r:id="rId49"/>
-    <hyperlink ref="E129" r:id="rId50"/>
-    <hyperlink ref="E133" r:id="rId51"/>
-    <hyperlink ref="E8" r:id="rId52"/>
-    <hyperlink ref="E125" r:id="rId53"/>
-    <hyperlink ref="E38" r:id="rId54"/>
-    <hyperlink ref="E58" r:id="rId55"/>
-    <hyperlink ref="E6" r:id="rId56"/>
-    <hyperlink ref="E104" r:id="rId57"/>
-    <hyperlink ref="E3" r:id="rId58"/>
-    <hyperlink ref="E39" r:id="rId59"/>
-    <hyperlink ref="E97" r:id="rId60"/>
-    <hyperlink ref="E118" r:id="rId61" display="mailto:toyetes-91@hotmail.com"/>
-    <hyperlink ref="E4" r:id="rId62"/>
-    <hyperlink ref="E124" r:id="rId63"/>
-    <hyperlink ref="E45" r:id="rId64"/>
-    <hyperlink ref="E103" r:id="rId65"/>
-    <hyperlink ref="E82" r:id="rId66"/>
-    <hyperlink ref="E135" r:id="rId67"/>
-    <hyperlink ref="E5" r:id="rId68"/>
-    <hyperlink ref="E70" r:id="rId69"/>
+    <hyperlink ref="E8" r:id="rId1"/>
+    <hyperlink ref="E11" r:id="rId2"/>
+    <hyperlink ref="E12" r:id="rId3"/>
+    <hyperlink ref="E13" r:id="rId4"/>
+    <hyperlink ref="E15" r:id="rId5"/>
+    <hyperlink ref="E16" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId7"/>
+    <hyperlink ref="E27" r:id="rId8"/>
+    <hyperlink ref="E30" r:id="rId9"/>
+    <hyperlink ref="E34" r:id="rId10"/>
+    <hyperlink ref="E35" r:id="rId11"/>
+    <hyperlink ref="E39" r:id="rId12"/>
+    <hyperlink ref="E43" r:id="rId13"/>
+    <hyperlink ref="E45" r:id="rId14"/>
+    <hyperlink ref="E46" r:id="rId15"/>
+    <hyperlink ref="E49" r:id="rId16"/>
+    <hyperlink ref="E50" r:id="rId17"/>
+    <hyperlink ref="E51" r:id="rId18"/>
+    <hyperlink ref="E52" r:id="rId19"/>
+    <hyperlink ref="E57" r:id="rId20"/>
+    <hyperlink ref="E59" r:id="rId21"/>
+    <hyperlink ref="E63" r:id="rId22"/>
+    <hyperlink ref="E65" r:id="rId23"/>
+    <hyperlink ref="E66" r:id="rId24"/>
+    <hyperlink ref="E68" r:id="rId25"/>
+    <hyperlink ref="E72" r:id="rId26"/>
+    <hyperlink ref="E73" r:id="rId27"/>
+    <hyperlink ref="E74" r:id="rId28"/>
+    <hyperlink ref="E77" r:id="rId29"/>
+    <hyperlink ref="E80" r:id="rId30"/>
+    <hyperlink ref="E86" r:id="rId31"/>
+    <hyperlink ref="E90" r:id="rId32"/>
+    <hyperlink ref="E94" r:id="rId33"/>
+    <hyperlink ref="E95" r:id="rId34"/>
+    <hyperlink ref="E97" r:id="rId35"/>
+    <hyperlink ref="E100" r:id="rId36"/>
+    <hyperlink ref="E102" r:id="rId37"/>
+    <hyperlink ref="E104" r:id="rId38"/>
+    <hyperlink ref="E107" r:id="rId39"/>
+    <hyperlink ref="E108" r:id="rId40"/>
+    <hyperlink ref="E111" r:id="rId41"/>
+    <hyperlink ref="E115" r:id="rId42"/>
+    <hyperlink ref="E117" r:id="rId43"/>
+    <hyperlink ref="E118" r:id="rId44"/>
+    <hyperlink ref="E122" r:id="rId45"/>
+    <hyperlink ref="E124" r:id="rId46"/>
+    <hyperlink ref="E125" r:id="rId47"/>
+    <hyperlink ref="E128" r:id="rId48"/>
+    <hyperlink ref="E130" r:id="rId49"/>
+    <hyperlink ref="E140" r:id="rId50"/>
+    <hyperlink ref="E144" r:id="rId51"/>
+    <hyperlink ref="E9" r:id="rId52"/>
+    <hyperlink ref="E136" r:id="rId53"/>
+    <hyperlink ref="E40" r:id="rId54"/>
+    <hyperlink ref="E62" r:id="rId55"/>
+    <hyperlink ref="E7" r:id="rId56"/>
+    <hyperlink ref="E113" r:id="rId57"/>
+    <hyperlink ref="E4" r:id="rId58"/>
+    <hyperlink ref="E41" r:id="rId59"/>
+    <hyperlink ref="E106" r:id="rId60"/>
+    <hyperlink ref="E127" r:id="rId61" display="mailto:toyetes-91@hotmail.com"/>
+    <hyperlink ref="E5" r:id="rId62"/>
+    <hyperlink ref="E135" r:id="rId63"/>
+    <hyperlink ref="E47" r:id="rId64"/>
+    <hyperlink ref="E112" r:id="rId65"/>
+    <hyperlink ref="E88" r:id="rId66"/>
+    <hyperlink ref="E146" r:id="rId67"/>
+    <hyperlink ref="E6" r:id="rId68"/>
+    <hyperlink ref="E75" r:id="rId69"/>
+    <hyperlink ref="E82" r:id="rId70"/>
+    <hyperlink ref="E99" r:id="rId71"/>
+    <hyperlink ref="E26" r:id="rId72"/>
+    <hyperlink ref="E98" r:id="rId73"/>
+    <hyperlink ref="E58" r:id="rId74"/>
+    <hyperlink ref="E53" r:id="rId75"/>
+    <hyperlink ref="E131" r:id="rId76"/>
+    <hyperlink ref="E70" r:id="rId77"/>
+    <hyperlink ref="E103" r:id="rId78"/>
+    <hyperlink ref="E132" r:id="rId79"/>
+    <hyperlink ref="E3" r:id="rId80"/>
   </hyperlinks>
   <pageMargins left="0.55138888888888893" right="0.55138888888888893" top="1.1812499999999999" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId70"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId81"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -5917,7 +6440,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
